--- a/Cálculo estimado del pago xerox/Condiciones contrato XEROX.xlsx
+++ b/Cálculo estimado del pago xerox/Condiciones contrato XEROX.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\behep\OneDrive - Seiton de México\PITSS\Xerox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaguilar\Desktop\PITSS\PITSS\Cálculo estimado del pago xerox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9301797-2004-4F34-80A9-3CD56E52A078}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889EA61A-1570-4123-A28E-ADAC9A8867A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20520" yWindow="6435" windowWidth="20640" windowHeight="11160" xr2:uid="{A35167E7-EF64-47FB-9894-7D099DF2BC1C}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="4" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +29,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -777,7 +776,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{17D6AC7F-EAF3-42E4-8866-6DF9BCA1E3D8}" name="TablaDinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{17D6AC7F-EAF3-42E4-8866-6DF9BCA1E3D8}" name="TablaDinámica2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField axis="axisRow" showAll="0">
@@ -1289,17 +1288,17 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="29.15625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.47265625" customWidth="1"/>
-    <col min="5" max="7" width="9.47265625" customWidth="1"/>
+    <col min="3" max="3" width="38.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="7" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>35</v>
       </c>
@@ -1322,7 +1321,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H2" s="20" t="s">
         <v>36</v>
       </c>
@@ -1332,7 +1331,7 @@
       <c r="L2" s="20"/>
       <c r="M2" s="20"/>
     </row>
-    <row r="3" spans="1:18" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1373,7 +1372,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -1424,7 +1423,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -1472,7 +1471,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>1</v>
       </c>
@@ -1520,7 +1519,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -1568,7 +1567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>1</v>
       </c>
@@ -1616,7 +1615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>1</v>
       </c>
@@ -1664,7 +1663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>1</v>
       </c>
@@ -1712,7 +1711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>2</v>
       </c>
@@ -1760,7 +1759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>2</v>
       </c>
@@ -1808,7 +1807,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>2</v>
       </c>
@@ -1856,7 +1855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>2</v>
       </c>
@@ -1904,7 +1903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>2</v>
       </c>
@@ -1952,7 +1951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>3</v>
       </c>
@@ -2000,7 +1999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>3</v>
       </c>
@@ -2048,7 +2047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>3</v>
       </c>
@@ -2096,7 +2095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>4</v>
       </c>
@@ -2144,7 +2143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>4</v>
       </c>
@@ -2192,7 +2191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>4</v>
       </c>
@@ -2265,13 +2264,13 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.05078125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.41796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>68</v>
       </c>
@@ -2279,7 +2278,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -2287,7 +2286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -2299,7 +2298,7 @@
         <v>178.75</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -2311,7 +2310,7 @@
         <v>250.25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -2332,14 +2331,14 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="16.578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.41796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>60</v>
       </c>
@@ -2347,7 +2346,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>1</v>
       </c>
@@ -2355,7 +2354,7 @@
         <v>78000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>44</v>
       </c>
@@ -2363,7 +2362,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>52</v>
       </c>
@@ -2371,7 +2370,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>43</v>
       </c>
@@ -2379,7 +2378,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>52</v>
       </c>
@@ -2387,7 +2386,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>42</v>
       </c>
@@ -2395,7 +2394,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>52</v>
       </c>
@@ -2403,7 +2402,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>54</v>
       </c>
@@ -2411,7 +2410,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>53</v>
       </c>
@@ -2419,7 +2418,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>2</v>
       </c>
@@ -2427,7 +2426,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>49</v>
       </c>
@@ -2435,7 +2434,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>52</v>
       </c>
@@ -2443,7 +2442,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>3</v>
       </c>
@@ -2451,7 +2450,7 @@
         <v>17500</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>44</v>
       </c>
@@ -2459,7 +2458,7 @@
         <v>17500</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>52</v>
       </c>
@@ -2467,7 +2466,7 @@
         <v>17500</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>4</v>
       </c>
@@ -2475,7 +2474,7 @@
         <v>125000</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>56</v>
       </c>
@@ -2483,7 +2482,7 @@
         <v>125000</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>58</v>
       </c>
@@ -2491,7 +2490,7 @@
         <v>73000</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>53</v>
       </c>
@@ -2499,7 +2498,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>57</v>
       </c>
@@ -2507,7 +2506,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>61</v>
       </c>
@@ -2528,24 +2527,24 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="17.3671875" customWidth="1"/>
-    <col min="3" max="3" width="43.41796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.41796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1015625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.26171875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.3671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.47265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F1" s="3">
         <f>+SUM(Tabla2[Pago total])</f>
         <v>271000</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -2580,7 +2579,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2617,7 +2616,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2654,7 +2653,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2691,7 +2690,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2728,7 +2727,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -2765,7 +2764,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -2802,7 +2801,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -2836,7 +2835,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
@@ -2870,7 +2869,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -2904,7 +2903,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
@@ -2938,14 +2937,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E14" s="3"/>
       <c r="F14" s="3">
         <f>+SUM(Tabla2[Pago total])</f>
         <v>271000</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E15" s="3" t="s">
         <v>72</v>
       </c>
@@ -2954,7 +2953,7 @@
         <v>73000</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E16" s="16" t="s">
         <v>73</v>
       </c>
@@ -2963,23 +2962,23 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F17" s="17">
         <f>+F14-SUM(F15:F16)</f>
         <v>173000</v>
       </c>
     </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F18" s="3"/>
       <c r="H18" s="17"/>
     </row>
-    <row r="19" spans="6:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F19" s="3">
         <f>1300000-125000</f>
         <v>1175000</v>
       </c>
     </row>
-    <row r="20" spans="6:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F20" s="17">
         <f>+F19-F12-SUM(F3:F8)</f>
         <v>1029000</v>

--- a/Cálculo estimado del pago xerox/Condiciones contrato XEROX.xlsx
+++ b/Cálculo estimado del pago xerox/Condiciones contrato XEROX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaguilar\Desktop\PITSS\PITSS\Cálculo estimado del pago xerox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889EA61A-1570-4123-A28E-ADAC9A8867A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECA588A-6735-4AD9-BFCC-52B4E6129CF0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20520" yWindow="6435" windowWidth="20640" windowHeight="11160" xr2:uid="{A35167E7-EF64-47FB-9894-7D099DF2BC1C}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId5"/>
+    <pivotCache cacheId="5" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="75">
   <si>
     <t>Segmento</t>
   </si>
@@ -71,9 +71,6 @@
     <t>A4 Color Solid Ink MFPs</t>
   </si>
   <si>
-    <t>Deparmental Digital</t>
-  </si>
-  <si>
     <t>Office Digital</t>
   </si>
   <si>
@@ -258,6 +255,12 @@
   </si>
   <si>
     <t>Colima</t>
+  </si>
+  <si>
+    <t>Departmental Digital</t>
+  </si>
+  <si>
+    <t>Entry Production Color Mid</t>
   </si>
 </sst>
 </file>
@@ -270,7 +273,7 @@
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,6 +303,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -340,7 +349,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -384,6 +393,9 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -391,7 +403,21 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="22">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="22" formatCode="mmm\-yy"/>
     </dxf>
@@ -567,13 +593,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -776,7 +795,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{17D6AC7F-EAF3-42E4-8866-6DF9BCA1E3D8}" name="TablaDinámica2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{17D6AC7F-EAF3-42E4-8866-6DF9BCA1E3D8}" name="TablaDinámica2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField axis="axisRow" showAll="0">
@@ -894,7 +913,7 @@
     <dataField name="Suma de Pago total" fld="5" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="4">
+    <format dxfId="6">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -917,8 +936,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1C25D229-9FFB-48D6-8D95-C544654B76B8}" name="Pagos.y.fiabilidad" displayName="Pagos.y.fiabilidad" ref="A3:M21" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A3:M21" xr:uid="{3A2D8084-F186-45CE-80C4-9C3F211FA66D}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1C25D229-9FFB-48D6-8D95-C544654B76B8}" name="Pagos.y.fiabilidad" displayName="Pagos.y.fiabilidad" ref="A3:M23" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="A3:M23" xr:uid="{3A2D8084-F186-45CE-80C4-9C3F211FA66D}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -934,19 +953,19 @@
     <filterColumn colId="12" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{005D1D0D-509E-4764-B42D-1C00D2A3A5AB}" name="Segmento" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{68508EDF-21B1-4EDD-A09C-78DAC7FCAAA3}" name="División" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{71FEB99C-6AF6-4171-8D43-57E01A857433}" name="Familia" dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{DFC593D6-ED61-434E-B151-939365E6D412}" name="Pago Base CDMX y área metropolitana" dataDxfId="14" dataCellStyle="Moneda"/>
-    <tableColumn id="11" xr3:uid="{05E11830-C11E-416B-A34B-2DB3BFCDE309}" name="Pago Base Interior" dataDxfId="13" dataCellStyle="Moneda"/>
-    <tableColumn id="12" xr3:uid="{6EBE77F4-2A72-4BBE-B4E0-4440F15A1561}" name="TR Ciudades principales" dataDxfId="12" dataCellStyle="Moneda"/>
-    <tableColumn id="13" xr3:uid="{F8FA73C2-C030-47B4-991C-37AA3B09A1D8}" name="TR Otras ciudades" dataDxfId="11" dataCellStyle="Moneda"/>
-    <tableColumn id="9" xr3:uid="{16535E20-25FD-4744-B476-92D6C3F9D72F}" name="menos de 3 días" dataDxfId="10" dataCellStyle="Porcentaje"/>
-    <tableColumn id="8" xr3:uid="{C2181B48-33DE-4CD4-BDC1-D3534442319C}" name="entre 3 y 6 días" dataDxfId="9" dataCellStyle="Porcentaje"/>
-    <tableColumn id="7" xr3:uid="{99D5C06E-AD95-4423-876E-F498EAE8B5A8}" name="entre 7 y 15 días" dataDxfId="8" dataCellStyle="Porcentaje"/>
-    <tableColumn id="6" xr3:uid="{9E62920E-010D-4ECD-8BDE-2EF4EA7C44B1}" name="entre 16 y 30 días" dataDxfId="7" dataCellStyle="Porcentaje"/>
-    <tableColumn id="5" xr3:uid="{ABB3F098-3BD7-4F40-8F94-687D6102A7A0}" name="entre 31 y 59 días" dataDxfId="6" dataCellStyle="Porcentaje"/>
-    <tableColumn id="4" xr3:uid="{EF1E8BD0-0872-4BD2-AB63-22B9993686FE}" name="60 días o más" dataDxfId="5" dataCellStyle="Porcentaje"/>
+    <tableColumn id="1" xr3:uid="{005D1D0D-509E-4764-B42D-1C00D2A3A5AB}" name="Segmento" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{68508EDF-21B1-4EDD-A09C-78DAC7FCAAA3}" name="División" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{71FEB99C-6AF6-4171-8D43-57E01A857433}" name="Familia" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{DFC593D6-ED61-434E-B151-939365E6D412}" name="Pago Base CDMX y área metropolitana" dataDxfId="16" dataCellStyle="Moneda"/>
+    <tableColumn id="11" xr3:uid="{05E11830-C11E-416B-A34B-2DB3BFCDE309}" name="Pago Base Interior" dataDxfId="15" dataCellStyle="Moneda"/>
+    <tableColumn id="12" xr3:uid="{6EBE77F4-2A72-4BBE-B4E0-4440F15A1561}" name="TR Ciudades principales" dataDxfId="14" dataCellStyle="Moneda"/>
+    <tableColumn id="13" xr3:uid="{F8FA73C2-C030-47B4-991C-37AA3B09A1D8}" name="TR Otras ciudades" dataDxfId="13" dataCellStyle="Moneda"/>
+    <tableColumn id="9" xr3:uid="{16535E20-25FD-4744-B476-92D6C3F9D72F}" name="menos de 3 días" dataDxfId="12" dataCellStyle="Porcentaje"/>
+    <tableColumn id="8" xr3:uid="{C2181B48-33DE-4CD4-BDC1-D3534442319C}" name="entre 3 y 6 días" dataDxfId="11" dataCellStyle="Porcentaje"/>
+    <tableColumn id="7" xr3:uid="{99D5C06E-AD95-4423-876E-F498EAE8B5A8}" name="entre 7 y 15 días" dataDxfId="10" dataCellStyle="Porcentaje"/>
+    <tableColumn id="6" xr3:uid="{9E62920E-010D-4ECD-8BDE-2EF4EA7C44B1}" name="entre 16 y 30 días" dataDxfId="9" dataCellStyle="Porcentaje"/>
+    <tableColumn id="5" xr3:uid="{ABB3F098-3BD7-4F40-8F94-687D6102A7A0}" name="entre 31 y 59 días" dataDxfId="8" dataCellStyle="Porcentaje"/>
+    <tableColumn id="4" xr3:uid="{EF1E8BD0-0872-4BD2-AB63-22B9993686FE}" name="60 días o más" dataDxfId="7" dataCellStyle="Porcentaje"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -971,14 +990,14 @@
     <tableColumn id="1" xr3:uid="{47E6C4B6-A8EE-463B-9BC3-4DA87769B338}" name="Acuerdo específico"/>
     <tableColumn id="10" xr3:uid="{BD70D967-105F-41D8-A612-BD4D55233D43}" name="Tipo"/>
     <tableColumn id="2" xr3:uid="{41235D39-EFE8-4AFA-A596-EBB433C2866C}" name="Localidad/Cliente"/>
-    <tableColumn id="6" xr3:uid="{62E9497B-23AB-44BB-8C1D-91EC64F1F370}" name="Cantidad" dataDxfId="3" dataCellStyle="Millares"/>
-    <tableColumn id="3" xr3:uid="{A690F432-8502-4A59-880B-4C876E6C851A}" name="Monto unitario" dataDxfId="2" dataCellStyle="Moneda"/>
-    <tableColumn id="7" xr3:uid="{12CF4FB7-9E18-406D-80CA-91D35ED87E18}" name="Pago total" dataDxfId="1" dataCellStyle="Moneda">
+    <tableColumn id="6" xr3:uid="{62E9497B-23AB-44BB-8C1D-91EC64F1F370}" name="Cantidad" dataDxfId="5" dataCellStyle="Millares"/>
+    <tableColumn id="3" xr3:uid="{A690F432-8502-4A59-880B-4C876E6C851A}" name="Monto unitario" dataDxfId="4" dataCellStyle="Moneda"/>
+    <tableColumn id="7" xr3:uid="{12CF4FB7-9E18-406D-80CA-91D35ED87E18}" name="Pago total" dataDxfId="3" dataCellStyle="Moneda">
       <calculatedColumnFormula>+Tabla2[Cantidad]*Tabla2[Monto unitario]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{723B5F11-20BB-42A2-8CCB-34A404458A56}" name="Inicio"/>
     <tableColumn id="5" xr3:uid="{3A09A9D2-558C-4807-B738-2D6C35FA14E2}" name="Vigencia (meses)"/>
-    <tableColumn id="8" xr3:uid="{31029BDB-DB16-47B0-A5C3-30E931353FB3}" name="fecha final" dataDxfId="0">
+    <tableColumn id="8" xr3:uid="{31029BDB-DB16-47B0-A5C3-30E931353FB3}" name="fecha final" dataDxfId="2">
       <calculatedColumnFormula>+EDATE(Tabla2[[#This Row],[Inicio]],Tabla2[[#This Row],[Vigencia (meses)]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{E3BC72A2-E107-47B3-93D4-D8BAACB07FFD}" name="Cambio en SLAs"/>
@@ -1285,10 +1304,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{062E1F7C-AFA9-4CB7-82FD-06C1FD4F2038}">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1300,7 +1319,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H1">
         <v>2</v>
@@ -1323,7 +1342,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H2" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I2" s="20"/>
       <c r="J2" s="20"/>
@@ -1342,34 +1361,34 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="H3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -1417,10 +1436,10 @@
         <v>429</v>
       </c>
       <c r="Q4" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" t="s">
         <v>23</v>
-      </c>
-      <c r="R4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -1515,7 +1534,7 @@
         <v>60</v>
       </c>
       <c r="R6">
-        <f t="shared" ref="R6:R21" si="0">+IFERROR(MATCH(Q6,$H$1:$M$1,1),1)</f>
+        <f t="shared" ref="R6:R22" si="0">+IFERROR(MATCH(Q6,$H$1:$M$1,1),1)</f>
         <v>6</v>
       </c>
     </row>
@@ -1719,7 +1738,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D11" s="7">
         <v>655</v>
@@ -1767,7 +1786,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" s="7">
         <v>655</v>
@@ -1815,7 +1834,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" s="7">
         <v>655</v>
@@ -1863,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="7">
         <v>655</v>
@@ -1911,7 +1930,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" s="7">
         <v>655</v>
@@ -1956,10 +1975,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="D16" s="7">
         <v>803</v>
@@ -2004,10 +2023,10 @@
         <v>3</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>74</v>
       </c>
       <c r="D17" s="7">
         <v>803</v>
@@ -2038,13 +2057,6 @@
       </c>
       <c r="M17" s="9">
         <v>1.1499999999999999</v>
-      </c>
-      <c r="Q17">
-        <v>4</v>
-      </c>
-      <c r="R17">
-        <f t="shared" si="0"/>
-        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
@@ -2052,10 +2064,10 @@
         <v>3</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D18" s="7">
         <v>803</v>
@@ -2088,7 +2100,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="Q18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R18">
         <f t="shared" si="0"/>
@@ -2097,50 +2109,50 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
+        <v>3</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="7">
+        <v>803</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1573</v>
+      </c>
+      <c r="F19" s="8">
         <v>4</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1116</v>
-      </c>
-      <c r="E19" s="7">
-        <v>2145</v>
-      </c>
-      <c r="F19" s="8">
-        <v>3</v>
       </c>
       <c r="G19" s="8">
         <v>6</v>
       </c>
       <c r="H19" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="I19" s="9">
         <v>0.6</v>
       </c>
-      <c r="I19" s="9">
+      <c r="J19" s="9">
         <v>0.8</v>
       </c>
-      <c r="J19" s="9">
+      <c r="K19" s="9">
         <v>1.05</v>
       </c>
-      <c r="K19" s="9">
+      <c r="L19" s="9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L19" s="9">
+      <c r="M19" s="9">
         <v>1.1499999999999999</v>
       </c>
-      <c r="M19" s="9">
-        <v>1.2</v>
-      </c>
       <c r="Q19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R19">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
@@ -2148,10 +2160,10 @@
         <v>4</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D20" s="7">
         <v>1116</v>
@@ -2160,7 +2172,7 @@
         <v>2145</v>
       </c>
       <c r="F20" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G20" s="8">
         <v>6</v>
@@ -2184,7 +2196,7 @@
         <v>1.2</v>
       </c>
       <c r="Q20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R20">
         <f t="shared" si="0"/>
@@ -2196,10 +2208,10 @@
         <v>4</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D21" s="7">
         <v>1116</v>
@@ -2232,9 +2244,57 @@
         <v>1.2</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>4</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1116</v>
+      </c>
+      <c r="E22" s="7">
+        <v>2145</v>
+      </c>
+      <c r="F22" s="8">
+        <v>4</v>
+      </c>
+      <c r="G22" s="8">
+        <v>6</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="I22" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="J22" s="9">
+        <v>1.05</v>
+      </c>
+      <c r="K22" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L22" s="9">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="M22" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2243,8 +2303,8 @@
   <mergeCells count="1">
     <mergeCell ref="H2:M2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A4:M21">
-    <cfRule type="expression" dxfId="20" priority="1">
+  <conditionalFormatting sqref="A4:M22">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>OR($A4=1,$A4=3)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2272,15 +2332,15 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
         <v>68</v>
-      </c>
-      <c r="B1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="18">
         <v>0</v>
@@ -2288,10 +2348,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3">
         <f>0.25*'Matriz global'!E4</f>
@@ -2300,10 +2360,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E4">
         <f>+'Matriz global'!O4-'Penalización TR'!D3</f>
@@ -2312,7 +2372,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" s="18">
         <v>1</v>
@@ -2340,10 +2400,10 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2356,7 +2416,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="17">
         <v>17000</v>
@@ -2364,7 +2424,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="17">
         <v>17000</v>
@@ -2372,7 +2432,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="17">
         <v>17000</v>
@@ -2380,7 +2440,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="17">
         <v>17000</v>
@@ -2388,7 +2448,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="17">
         <v>17000</v>
@@ -2396,7 +2456,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="17">
         <v>17000</v>
@@ -2404,7 +2464,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="17">
         <v>27000</v>
@@ -2412,7 +2472,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" s="17">
         <v>27000</v>
@@ -2428,7 +2488,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" s="17">
         <v>25000</v>
@@ -2436,7 +2496,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" s="17">
         <v>25000</v>
@@ -2452,7 +2512,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17" s="17">
         <v>17500</v>
@@ -2460,7 +2520,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18" s="17">
         <v>17500</v>
@@ -2476,7 +2536,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" s="17">
         <v>125000</v>
@@ -2484,7 +2544,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B21" s="17">
         <v>73000</v>
@@ -2492,7 +2552,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B22" s="17">
         <v>27000</v>
@@ -2500,7 +2560,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23" s="17">
         <v>25000</v>
@@ -2508,7 +2568,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B24" s="17">
         <v>245500</v>
@@ -2546,37 +2606,37 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
         <v>37</v>
       </c>
-      <c r="B2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" t="s">
-        <v>38</v>
-      </c>
       <c r="H2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" t="s">
         <v>45</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>46</v>
       </c>
-      <c r="J2" t="s">
-        <v>47</v>
-      </c>
       <c r="K2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -2584,10 +2644,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
@@ -2610,10 +2670,10 @@
         <v>43647</v>
       </c>
       <c r="J3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -2621,10 +2681,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
@@ -2647,10 +2707,10 @@
         <v>43647</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -2658,10 +2718,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
@@ -2684,10 +2744,10 @@
         <v>43647</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2695,10 +2755,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
         <v>53</v>
-      </c>
-      <c r="C6" t="s">
-        <v>54</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
@@ -2721,10 +2781,10 @@
         <v>43647</v>
       </c>
       <c r="J6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2732,10 +2792,10 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
@@ -2758,10 +2818,10 @@
         <v>43709</v>
       </c>
       <c r="J7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2769,10 +2829,10 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
@@ -2795,10 +2855,10 @@
         <v>43831</v>
       </c>
       <c r="J8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2806,10 +2866,10 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" s="5">
         <v>1</v>
@@ -2832,7 +2892,7 @@
         <v>44440</v>
       </c>
       <c r="K9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -2840,10 +2900,10 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="5">
         <v>2</v>
@@ -2866,7 +2926,7 @@
         <v>44440</v>
       </c>
       <c r="K10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -2874,10 +2934,10 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="5">
         <v>1</v>
@@ -2900,7 +2960,7 @@
         <v>44440</v>
       </c>
       <c r="K11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2908,10 +2968,10 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12" s="5">
         <v>1</v>
@@ -2934,7 +2994,7 @@
         <v>44958</v>
       </c>
       <c r="K12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2946,7 +3006,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E15" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F15" s="17">
         <f>+F11</f>
@@ -2955,7 +3015,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E16" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F16" s="17">
         <f>+F7</f>

--- a/Cálculo estimado del pago xerox/Condiciones contrato XEROX.xlsx
+++ b/Cálculo estimado del pago xerox/Condiciones contrato XEROX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaguilar\Desktop\PITSS\PITSS\Cálculo estimado del pago xerox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECA588A-6735-4AD9-BFCC-52B4E6129CF0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D522E64-633F-44B7-BCB3-8EC643C9C1CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20520" yWindow="6435" windowWidth="20640" windowHeight="11160" xr2:uid="{A35167E7-EF64-47FB-9894-7D099DF2BC1C}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -390,10 +390,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -403,21 +403,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="21">
     <dxf>
       <numFmt numFmtId="22" formatCode="mmm\-yy"/>
     </dxf>
@@ -593,6 +579,13 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -795,7 +788,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{17D6AC7F-EAF3-42E4-8866-6DF9BCA1E3D8}" name="TablaDinámica2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{17D6AC7F-EAF3-42E4-8866-6DF9BCA1E3D8}" name="TablaDinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField axis="axisRow" showAll="0">
@@ -913,7 +906,7 @@
     <dataField name="Suma de Pago total" fld="5" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="6">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -936,7 +929,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1C25D229-9FFB-48D6-8D95-C544654B76B8}" name="Pagos.y.fiabilidad" displayName="Pagos.y.fiabilidad" ref="A3:M23" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1C25D229-9FFB-48D6-8D95-C544654B76B8}" name="Pagos.y.fiabilidad" displayName="Pagos.y.fiabilidad" ref="A3:M23" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A3:M23" xr:uid="{3A2D8084-F186-45CE-80C4-9C3F211FA66D}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -953,19 +946,19 @@
     <filterColumn colId="12" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{005D1D0D-509E-4764-B42D-1C00D2A3A5AB}" name="Segmento" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{68508EDF-21B1-4EDD-A09C-78DAC7FCAAA3}" name="División" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{71FEB99C-6AF6-4171-8D43-57E01A857433}" name="Familia" dataDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{DFC593D6-ED61-434E-B151-939365E6D412}" name="Pago Base CDMX y área metropolitana" dataDxfId="16" dataCellStyle="Moneda"/>
-    <tableColumn id="11" xr3:uid="{05E11830-C11E-416B-A34B-2DB3BFCDE309}" name="Pago Base Interior" dataDxfId="15" dataCellStyle="Moneda"/>
-    <tableColumn id="12" xr3:uid="{6EBE77F4-2A72-4BBE-B4E0-4440F15A1561}" name="TR Ciudades principales" dataDxfId="14" dataCellStyle="Moneda"/>
-    <tableColumn id="13" xr3:uid="{F8FA73C2-C030-47B4-991C-37AA3B09A1D8}" name="TR Otras ciudades" dataDxfId="13" dataCellStyle="Moneda"/>
-    <tableColumn id="9" xr3:uid="{16535E20-25FD-4744-B476-92D6C3F9D72F}" name="menos de 3 días" dataDxfId="12" dataCellStyle="Porcentaje"/>
-    <tableColumn id="8" xr3:uid="{C2181B48-33DE-4CD4-BDC1-D3534442319C}" name="entre 3 y 6 días" dataDxfId="11" dataCellStyle="Porcentaje"/>
-    <tableColumn id="7" xr3:uid="{99D5C06E-AD95-4423-876E-F498EAE8B5A8}" name="entre 7 y 15 días" dataDxfId="10" dataCellStyle="Porcentaje"/>
-    <tableColumn id="6" xr3:uid="{9E62920E-010D-4ECD-8BDE-2EF4EA7C44B1}" name="entre 16 y 30 días" dataDxfId="9" dataCellStyle="Porcentaje"/>
-    <tableColumn id="5" xr3:uid="{ABB3F098-3BD7-4F40-8F94-687D6102A7A0}" name="entre 31 y 59 días" dataDxfId="8" dataCellStyle="Porcentaje"/>
-    <tableColumn id="4" xr3:uid="{EF1E8BD0-0872-4BD2-AB63-22B9993686FE}" name="60 días o más" dataDxfId="7" dataCellStyle="Porcentaje"/>
+    <tableColumn id="1" xr3:uid="{005D1D0D-509E-4764-B42D-1C00D2A3A5AB}" name="Segmento" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{68508EDF-21B1-4EDD-A09C-78DAC7FCAAA3}" name="División" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{71FEB99C-6AF6-4171-8D43-57E01A857433}" name="Familia" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{DFC593D6-ED61-434E-B151-939365E6D412}" name="Pago Base CDMX y área metropolitana" dataDxfId="14" dataCellStyle="Moneda"/>
+    <tableColumn id="11" xr3:uid="{05E11830-C11E-416B-A34B-2DB3BFCDE309}" name="Pago Base Interior" dataDxfId="13" dataCellStyle="Moneda"/>
+    <tableColumn id="12" xr3:uid="{6EBE77F4-2A72-4BBE-B4E0-4440F15A1561}" name="TR Ciudades principales" dataDxfId="12" dataCellStyle="Moneda"/>
+    <tableColumn id="13" xr3:uid="{F8FA73C2-C030-47B4-991C-37AA3B09A1D8}" name="TR Otras ciudades" dataDxfId="11" dataCellStyle="Moneda"/>
+    <tableColumn id="9" xr3:uid="{16535E20-25FD-4744-B476-92D6C3F9D72F}" name="menos de 3 días" dataDxfId="10" dataCellStyle="Porcentaje"/>
+    <tableColumn id="8" xr3:uid="{C2181B48-33DE-4CD4-BDC1-D3534442319C}" name="entre 3 y 6 días" dataDxfId="9" dataCellStyle="Porcentaje"/>
+    <tableColumn id="7" xr3:uid="{99D5C06E-AD95-4423-876E-F498EAE8B5A8}" name="entre 7 y 15 días" dataDxfId="8" dataCellStyle="Porcentaje"/>
+    <tableColumn id="6" xr3:uid="{9E62920E-010D-4ECD-8BDE-2EF4EA7C44B1}" name="entre 16 y 30 días" dataDxfId="7" dataCellStyle="Porcentaje"/>
+    <tableColumn id="5" xr3:uid="{ABB3F098-3BD7-4F40-8F94-687D6102A7A0}" name="entre 31 y 59 días" dataDxfId="6" dataCellStyle="Porcentaje"/>
+    <tableColumn id="4" xr3:uid="{EF1E8BD0-0872-4BD2-AB63-22B9993686FE}" name="60 días o más" dataDxfId="5" dataCellStyle="Porcentaje"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -990,14 +983,14 @@
     <tableColumn id="1" xr3:uid="{47E6C4B6-A8EE-463B-9BC3-4DA87769B338}" name="Acuerdo específico"/>
     <tableColumn id="10" xr3:uid="{BD70D967-105F-41D8-A612-BD4D55233D43}" name="Tipo"/>
     <tableColumn id="2" xr3:uid="{41235D39-EFE8-4AFA-A596-EBB433C2866C}" name="Localidad/Cliente"/>
-    <tableColumn id="6" xr3:uid="{62E9497B-23AB-44BB-8C1D-91EC64F1F370}" name="Cantidad" dataDxfId="5" dataCellStyle="Millares"/>
-    <tableColumn id="3" xr3:uid="{A690F432-8502-4A59-880B-4C876E6C851A}" name="Monto unitario" dataDxfId="4" dataCellStyle="Moneda"/>
-    <tableColumn id="7" xr3:uid="{12CF4FB7-9E18-406D-80CA-91D35ED87E18}" name="Pago total" dataDxfId="3" dataCellStyle="Moneda">
+    <tableColumn id="6" xr3:uid="{62E9497B-23AB-44BB-8C1D-91EC64F1F370}" name="Cantidad" dataDxfId="3" dataCellStyle="Millares"/>
+    <tableColumn id="3" xr3:uid="{A690F432-8502-4A59-880B-4C876E6C851A}" name="Monto unitario" dataDxfId="2" dataCellStyle="Moneda"/>
+    <tableColumn id="7" xr3:uid="{12CF4FB7-9E18-406D-80CA-91D35ED87E18}" name="Pago total" dataDxfId="1" dataCellStyle="Moneda">
       <calculatedColumnFormula>+Tabla2[Cantidad]*Tabla2[Monto unitario]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{723B5F11-20BB-42A2-8CCB-34A404458A56}" name="Inicio"/>
     <tableColumn id="5" xr3:uid="{3A09A9D2-558C-4807-B738-2D6C35FA14E2}" name="Vigencia (meses)"/>
-    <tableColumn id="8" xr3:uid="{31029BDB-DB16-47B0-A5C3-30E931353FB3}" name="fecha final" dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{31029BDB-DB16-47B0-A5C3-30E931353FB3}" name="fecha final" dataDxfId="0">
       <calculatedColumnFormula>+EDATE(Tabla2[[#This Row],[Inicio]],Tabla2[[#This Row],[Vigencia (meses)]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{E3BC72A2-E107-47B3-93D4-D8BAACB07FFD}" name="Cambio en SLAs"/>
@@ -1306,7 +1299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{062E1F7C-AFA9-4CB7-82FD-06C1FD4F2038}">
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -1341,14 +1334,14 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
     </row>
     <row r="3" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -2025,7 +2018,7 @@
       <c r="B17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="20" t="s">
         <v>74</v>
       </c>
       <c r="D17" s="7">
@@ -2304,7 +2297,7 @@
     <mergeCell ref="H2:M2"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:M22">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="20" priority="1">
       <formula>OR($A4=1,$A4=3)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2321,12 +2314,12 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Cálculo estimado del pago xerox/Condiciones contrato XEROX.xlsx
+++ b/Cálculo estimado del pago xerox/Condiciones contrato XEROX.xlsx
@@ -5,22 +5,23 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaguilar\Desktop\PITSS\PITSS\Cálculo estimado del pago xerox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaguilar\Documents\PITSS\Cálculo estimado del pago xerox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D522E64-633F-44B7-BCB3-8EC643C9C1CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC8A364-FC2E-4817-807F-DA8B108009E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20520" yWindow="6435" windowWidth="20640" windowHeight="11160" xr2:uid="{A35167E7-EF64-47FB-9894-7D099DF2BC1C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Matriz global" sheetId="1" r:id="rId1"/>
-    <sheet name="Penalización TR" sheetId="4" r:id="rId2"/>
-    <sheet name="Resumen serv. fijos" sheetId="3" r:id="rId3"/>
-    <sheet name="Servicios fijos contratados" sheetId="2" r:id="rId4"/>
+    <sheet name="Condiciones" sheetId="5" r:id="rId1"/>
+    <sheet name="Matriz global" sheetId="1" r:id="rId2"/>
+    <sheet name="Penalización TR" sheetId="4" r:id="rId3"/>
+    <sheet name="Resumen serv. fijos" sheetId="3" r:id="rId4"/>
+    <sheet name="Servicios fijos contratados" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="75">
   <si>
     <t>Segmento</t>
   </si>
@@ -1296,10 +1297,737 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA1B6D95-E938-4245-AC3C-FA80ED79B58E}">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>468</v>
+      </c>
+      <c r="C2">
+        <v>715</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0.6</v>
+      </c>
+      <c r="J2">
+        <v>0.8</v>
+      </c>
+      <c r="K2">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>468</v>
+      </c>
+      <c r="C3">
+        <v>715</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0.6</v>
+      </c>
+      <c r="J3">
+        <v>0.8</v>
+      </c>
+      <c r="K3">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>468</v>
+      </c>
+      <c r="C4">
+        <v>715</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0.6</v>
+      </c>
+      <c r="J4">
+        <v>0.8</v>
+      </c>
+      <c r="K4">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>468</v>
+      </c>
+      <c r="C5">
+        <v>715</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0.6</v>
+      </c>
+      <c r="J5">
+        <v>0.8</v>
+      </c>
+      <c r="K5">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>468</v>
+      </c>
+      <c r="C6">
+        <v>715</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0.6</v>
+      </c>
+      <c r="J6">
+        <v>0.8</v>
+      </c>
+      <c r="K6">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>468</v>
+      </c>
+      <c r="C7">
+        <v>715</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0.6</v>
+      </c>
+      <c r="J7">
+        <v>0.8</v>
+      </c>
+      <c r="K7">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>468</v>
+      </c>
+      <c r="C8">
+        <v>715</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0.6</v>
+      </c>
+      <c r="J8">
+        <v>0.8</v>
+      </c>
+      <c r="K8">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9">
+        <v>655</v>
+      </c>
+      <c r="C9">
+        <v>1365</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0.6</v>
+      </c>
+      <c r="I9">
+        <v>0.8</v>
+      </c>
+      <c r="J9">
+        <v>1.05</v>
+      </c>
+      <c r="K9">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>655</v>
+      </c>
+      <c r="C10">
+        <v>1365</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0.6</v>
+      </c>
+      <c r="I10">
+        <v>0.8</v>
+      </c>
+      <c r="J10">
+        <v>1.05</v>
+      </c>
+      <c r="K10">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>655</v>
+      </c>
+      <c r="C11">
+        <v>1365</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0.6</v>
+      </c>
+      <c r="I11">
+        <v>0.8</v>
+      </c>
+      <c r="J11">
+        <v>1.05</v>
+      </c>
+      <c r="K11">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>655</v>
+      </c>
+      <c r="C12">
+        <v>1365</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0.6</v>
+      </c>
+      <c r="I12">
+        <v>0.8</v>
+      </c>
+      <c r="J12">
+        <v>1.05</v>
+      </c>
+      <c r="K12">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>655</v>
+      </c>
+      <c r="C13">
+        <v>1365</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0.6</v>
+      </c>
+      <c r="I13">
+        <v>0.8</v>
+      </c>
+      <c r="J13">
+        <v>1.05</v>
+      </c>
+      <c r="K13">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>803</v>
+      </c>
+      <c r="C14">
+        <v>1573</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>0.2</v>
+      </c>
+      <c r="G14">
+        <v>0.6</v>
+      </c>
+      <c r="H14">
+        <v>0.8</v>
+      </c>
+      <c r="I14">
+        <v>1.05</v>
+      </c>
+      <c r="J14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K14">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15">
+        <v>803</v>
+      </c>
+      <c r="C15">
+        <v>1573</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>0.2</v>
+      </c>
+      <c r="G15">
+        <v>0.6</v>
+      </c>
+      <c r="H15">
+        <v>0.8</v>
+      </c>
+      <c r="I15">
+        <v>1.05</v>
+      </c>
+      <c r="J15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K15">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>803</v>
+      </c>
+      <c r="C16">
+        <v>1573</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="F16">
+        <v>0.2</v>
+      </c>
+      <c r="G16">
+        <v>0.6</v>
+      </c>
+      <c r="H16">
+        <v>0.8</v>
+      </c>
+      <c r="I16">
+        <v>1.05</v>
+      </c>
+      <c r="J16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K16">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>803</v>
+      </c>
+      <c r="C17">
+        <v>1573</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+      <c r="F17">
+        <v>0.2</v>
+      </c>
+      <c r="G17">
+        <v>0.6</v>
+      </c>
+      <c r="H17">
+        <v>0.8</v>
+      </c>
+      <c r="I17">
+        <v>1.05</v>
+      </c>
+      <c r="J17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K17">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>1116</v>
+      </c>
+      <c r="C18">
+        <v>2145</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+      <c r="F18">
+        <v>0.6</v>
+      </c>
+      <c r="G18">
+        <v>0.8</v>
+      </c>
+      <c r="H18">
+        <v>1.05</v>
+      </c>
+      <c r="I18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J18">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="K18">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>1116</v>
+      </c>
+      <c r="C19">
+        <v>2145</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+      <c r="F19">
+        <v>0.6</v>
+      </c>
+      <c r="G19">
+        <v>0.8</v>
+      </c>
+      <c r="H19">
+        <v>1.05</v>
+      </c>
+      <c r="I19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J19">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="K19">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>1116</v>
+      </c>
+      <c r="C20">
+        <v>2145</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>6</v>
+      </c>
+      <c r="F20">
+        <v>0.6</v>
+      </c>
+      <c r="G20">
+        <v>0.8</v>
+      </c>
+      <c r="H20">
+        <v>1.05</v>
+      </c>
+      <c r="I20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J20">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="K20">
+        <v>1.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{062E1F7C-AFA9-4CB7-82FD-06C1FD4F2038}">
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -2309,7 +3037,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06736252-AA98-4610-BD36-2887D6253B0C}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -2376,7 +3104,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21424C74-485D-4743-8B6B-41791A0023A2}">
   <dimension ref="A3:B24"/>
   <sheetViews>
@@ -2572,7 +3300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB03D3E-98BC-4D22-BAA8-DCE02FF2525B}">
   <dimension ref="A1:K20"/>
   <sheetViews>

--- a/Cálculo estimado del pago xerox/Condiciones contrato XEROX.xlsx
+++ b/Cálculo estimado del pago xerox/Condiciones contrato XEROX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaguilar\Documents\PITSS\Cálculo estimado del pago xerox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC8A364-FC2E-4817-807F-DA8B108009E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AF72A7-F3D5-441C-879F-AEBAB05162C0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20520" yWindow="6435" windowWidth="20640" windowHeight="11160" xr2:uid="{A35167E7-EF64-47FB-9894-7D099DF2BC1C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="5" xr2:uid="{A35167E7-EF64-47FB-9894-7D099DF2BC1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Condiciones" sheetId="5" r:id="rId1"/>
@@ -18,10 +18,11 @@
     <sheet name="Penalización TR" sheetId="4" r:id="rId3"/>
     <sheet name="Resumen serv. fijos" sheetId="3" r:id="rId4"/>
     <sheet name="Servicios fijos contratados" sheetId="2" r:id="rId5"/>
+    <sheet name="renta_fija" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="9" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,6 +31,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="91">
   <si>
     <t>Segmento</t>
   </si>
@@ -262,6 +264,54 @@
   </si>
   <si>
     <t>Entry Production Color Mid</t>
+  </si>
+  <si>
+    <t>Columna1</t>
+  </si>
+  <si>
+    <t>Columna2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">luis eduardo lopez </t>
+  </si>
+  <si>
+    <t>arturo anaya</t>
+  </si>
+  <si>
+    <t>lucio del pilar</t>
+  </si>
+  <si>
+    <t>hector marin</t>
+  </si>
+  <si>
+    <t>LUCIO DEL PILAR MENDEZ</t>
+  </si>
+  <si>
+    <t>PAULO CESAR MARTINEZ/500053</t>
+  </si>
+  <si>
+    <t>JHONATTAN C. PATRICIO/100039</t>
+  </si>
+  <si>
+    <t>G. DANIEL MOLINA/500089</t>
+  </si>
+  <si>
+    <t>MIGUEL ISAIAS GONZALEZ/500057</t>
+  </si>
+  <si>
+    <t>JORGE H. FLORES/800185</t>
+  </si>
+  <si>
+    <t>BRENDA CRISTINA MIRELES/500170</t>
+  </si>
+  <si>
+    <t>CARLOS GUITIERREZ/800196</t>
+  </si>
+  <si>
+    <t>ALEJANDRO HINOJOSA/500169</t>
+  </si>
+  <si>
+    <t>Tecnico</t>
   </si>
 </sst>
 </file>
@@ -312,7 +362,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -325,8 +375,20 @@
         <bgColor theme="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -343,6 +405,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -350,7 +438,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -394,9 +482,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -405,6 +499,13 @@
     <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="21">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="22" formatCode="mmm\-yy"/>
     </dxf>
@@ -580,13 +681,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -789,7 +883,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{17D6AC7F-EAF3-42E4-8866-6DF9BCA1E3D8}" name="TablaDinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{17D6AC7F-EAF3-42E4-8866-6DF9BCA1E3D8}" name="TablaDinámica2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField axis="axisRow" showAll="0">
@@ -907,7 +1001,7 @@
     <dataField name="Suma de Pago total" fld="5" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="4">
+    <format dxfId="5">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -930,7 +1024,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1C25D229-9FFB-48D6-8D95-C544654B76B8}" name="Pagos.y.fiabilidad" displayName="Pagos.y.fiabilidad" ref="A3:M23" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1C25D229-9FFB-48D6-8D95-C544654B76B8}" name="Pagos.y.fiabilidad" displayName="Pagos.y.fiabilidad" ref="A3:M23" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A3:M23" xr:uid="{3A2D8084-F186-45CE-80C4-9C3F211FA66D}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -947,27 +1041,27 @@
     <filterColumn colId="12" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{005D1D0D-509E-4764-B42D-1C00D2A3A5AB}" name="Segmento" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{68508EDF-21B1-4EDD-A09C-78DAC7FCAAA3}" name="División" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{71FEB99C-6AF6-4171-8D43-57E01A857433}" name="Familia" dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{DFC593D6-ED61-434E-B151-939365E6D412}" name="Pago Base CDMX y área metropolitana" dataDxfId="14" dataCellStyle="Moneda"/>
-    <tableColumn id="11" xr3:uid="{05E11830-C11E-416B-A34B-2DB3BFCDE309}" name="Pago Base Interior" dataDxfId="13" dataCellStyle="Moneda"/>
-    <tableColumn id="12" xr3:uid="{6EBE77F4-2A72-4BBE-B4E0-4440F15A1561}" name="TR Ciudades principales" dataDxfId="12" dataCellStyle="Moneda"/>
-    <tableColumn id="13" xr3:uid="{F8FA73C2-C030-47B4-991C-37AA3B09A1D8}" name="TR Otras ciudades" dataDxfId="11" dataCellStyle="Moneda"/>
-    <tableColumn id="9" xr3:uid="{16535E20-25FD-4744-B476-92D6C3F9D72F}" name="menos de 3 días" dataDxfId="10" dataCellStyle="Porcentaje"/>
-    <tableColumn id="8" xr3:uid="{C2181B48-33DE-4CD4-BDC1-D3534442319C}" name="entre 3 y 6 días" dataDxfId="9" dataCellStyle="Porcentaje"/>
-    <tableColumn id="7" xr3:uid="{99D5C06E-AD95-4423-876E-F498EAE8B5A8}" name="entre 7 y 15 días" dataDxfId="8" dataCellStyle="Porcentaje"/>
-    <tableColumn id="6" xr3:uid="{9E62920E-010D-4ECD-8BDE-2EF4EA7C44B1}" name="entre 16 y 30 días" dataDxfId="7" dataCellStyle="Porcentaje"/>
-    <tableColumn id="5" xr3:uid="{ABB3F098-3BD7-4F40-8F94-687D6102A7A0}" name="entre 31 y 59 días" dataDxfId="6" dataCellStyle="Porcentaje"/>
-    <tableColumn id="4" xr3:uid="{EF1E8BD0-0872-4BD2-AB63-22B9993686FE}" name="60 días o más" dataDxfId="5" dataCellStyle="Porcentaje"/>
+    <tableColumn id="1" xr3:uid="{005D1D0D-509E-4764-B42D-1C00D2A3A5AB}" name="Segmento" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{68508EDF-21B1-4EDD-A09C-78DAC7FCAAA3}" name="División" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{71FEB99C-6AF6-4171-8D43-57E01A857433}" name="Familia" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{DFC593D6-ED61-434E-B151-939365E6D412}" name="Pago Base CDMX y área metropolitana" dataDxfId="15" dataCellStyle="Moneda"/>
+    <tableColumn id="11" xr3:uid="{05E11830-C11E-416B-A34B-2DB3BFCDE309}" name="Pago Base Interior" dataDxfId="14" dataCellStyle="Moneda"/>
+    <tableColumn id="12" xr3:uid="{6EBE77F4-2A72-4BBE-B4E0-4440F15A1561}" name="TR Ciudades principales" dataDxfId="13" dataCellStyle="Moneda"/>
+    <tableColumn id="13" xr3:uid="{F8FA73C2-C030-47B4-991C-37AA3B09A1D8}" name="TR Otras ciudades" dataDxfId="12" dataCellStyle="Moneda"/>
+    <tableColumn id="9" xr3:uid="{16535E20-25FD-4744-B476-92D6C3F9D72F}" name="menos de 3 días" dataDxfId="11" dataCellStyle="Porcentaje"/>
+    <tableColumn id="8" xr3:uid="{C2181B48-33DE-4CD4-BDC1-D3534442319C}" name="entre 3 y 6 días" dataDxfId="10" dataCellStyle="Porcentaje"/>
+    <tableColumn id="7" xr3:uid="{99D5C06E-AD95-4423-876E-F498EAE8B5A8}" name="entre 7 y 15 días" dataDxfId="9" dataCellStyle="Porcentaje"/>
+    <tableColumn id="6" xr3:uid="{9E62920E-010D-4ECD-8BDE-2EF4EA7C44B1}" name="entre 16 y 30 días" dataDxfId="8" dataCellStyle="Porcentaje"/>
+    <tableColumn id="5" xr3:uid="{ABB3F098-3BD7-4F40-8F94-687D6102A7A0}" name="entre 31 y 59 días" dataDxfId="7" dataCellStyle="Porcentaje"/>
+    <tableColumn id="4" xr3:uid="{EF1E8BD0-0872-4BD2-AB63-22B9993686FE}" name="60 días o más" dataDxfId="6" dataCellStyle="Porcentaje"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0F3F8C94-86F9-463C-8BBD-2FDFB5850128}" name="Tabla2" displayName="Tabla2" ref="A2:K12" totalsRowShown="0">
-  <autoFilter ref="A2:K12" xr:uid="{920702BD-F0D4-4621-AFCF-442C7F05D52D}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0F3F8C94-86F9-463C-8BBD-2FDFB5850128}" name="Tabla2" displayName="Tabla2" ref="A2:M13" totalsRowShown="0">
+  <autoFilter ref="A2:M13" xr:uid="{920702BD-F0D4-4621-AFCF-442C7F05D52D}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -979,19 +1073,23 @@
     <filterColumn colId="8" hiddenButton="1"/>
     <filterColumn colId="9" hiddenButton="1"/>
     <filterColumn colId="10" hiddenButton="1"/>
+    <filterColumn colId="11" hiddenButton="1"/>
+    <filterColumn colId="12" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="11">
+  <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{47E6C4B6-A8EE-463B-9BC3-4DA87769B338}" name="Acuerdo específico"/>
     <tableColumn id="10" xr3:uid="{BD70D967-105F-41D8-A612-BD4D55233D43}" name="Tipo"/>
     <tableColumn id="2" xr3:uid="{41235D39-EFE8-4AFA-A596-EBB433C2866C}" name="Localidad/Cliente"/>
-    <tableColumn id="6" xr3:uid="{62E9497B-23AB-44BB-8C1D-91EC64F1F370}" name="Cantidad" dataDxfId="3" dataCellStyle="Millares"/>
-    <tableColumn id="3" xr3:uid="{A690F432-8502-4A59-880B-4C876E6C851A}" name="Monto unitario" dataDxfId="2" dataCellStyle="Moneda"/>
-    <tableColumn id="7" xr3:uid="{12CF4FB7-9E18-406D-80CA-91D35ED87E18}" name="Pago total" dataDxfId="1" dataCellStyle="Moneda">
+    <tableColumn id="12" xr3:uid="{CA5016B3-C364-4884-AEC3-131C8DAA4123}" name="Columna1"/>
+    <tableColumn id="13" xr3:uid="{49CA605A-0A98-45E5-8E86-8C094667636E}" name="Columna2"/>
+    <tableColumn id="6" xr3:uid="{62E9497B-23AB-44BB-8C1D-91EC64F1F370}" name="Cantidad" dataDxfId="4" dataCellStyle="Millares"/>
+    <tableColumn id="3" xr3:uid="{A690F432-8502-4A59-880B-4C876E6C851A}" name="Monto unitario" dataDxfId="3" dataCellStyle="Moneda"/>
+    <tableColumn id="7" xr3:uid="{12CF4FB7-9E18-406D-80CA-91D35ED87E18}" name="Pago total" dataDxfId="2" dataCellStyle="Moneda">
       <calculatedColumnFormula>+Tabla2[Cantidad]*Tabla2[Monto unitario]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{723B5F11-20BB-42A2-8CCB-34A404458A56}" name="Inicio"/>
     <tableColumn id="5" xr3:uid="{3A09A9D2-558C-4807-B738-2D6C35FA14E2}" name="Vigencia (meses)"/>
-    <tableColumn id="8" xr3:uid="{31029BDB-DB16-47B0-A5C3-30E931353FB3}" name="fecha final" dataDxfId="0">
+    <tableColumn id="8" xr3:uid="{31029BDB-DB16-47B0-A5C3-30E931353FB3}" name="fecha final" dataDxfId="1">
       <calculatedColumnFormula>+EDATE(Tabla2[[#This Row],[Inicio]],Tabla2[[#This Row],[Vigencia (meses)]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{E3BC72A2-E107-47B3-93D4-D8BAACB07FFD}" name="Cambio en SLAs"/>
@@ -1300,7 +1398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA1B6D95-E938-4245-AC3C-FA80ED79B58E}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -2062,14 +2160,14 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
     </row>
     <row r="3" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -3025,7 +3123,7 @@
     <mergeCell ref="H2:M2"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:M22">
-    <cfRule type="expression" dxfId="20" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>OR($A4=1,$A4=3)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3109,7 +3207,7 @@
   <dimension ref="A3:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3302,30 +3400,32 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB03D3E-98BC-4D22-BAA8-DCE02FF2525B}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="17.42578125" customWidth="1"/>
     <col min="3" max="3" width="43.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F1" s="3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H1" s="3">
         <f>+SUM(Tabla2[Pago total])</f>
         <v>271000</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -3336,31 +3436,37 @@
         <v>49</v>
       </c>
       <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>39</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>40</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>37</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>44</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>45</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>46</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3370,34 +3476,37 @@
       <c r="C3" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3">
+        <v>500053</v>
+      </c>
+      <c r="F3" s="5">
         <v>1</v>
       </c>
-      <c r="E3" s="4">
+      <c r="G3" s="4">
         <v>17000</v>
       </c>
-      <c r="F3" s="4">
+      <c r="H3" s="4">
         <f>+Tabla2[Cantidad]*Tabla2[Monto unitario]</f>
         <v>17000</v>
       </c>
-      <c r="G3" s="11">
+      <c r="I3" s="11">
         <v>42979</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>22</v>
       </c>
-      <c r="I3" s="11">
+      <c r="K3" s="11">
         <f>+EDATE(Tabla2[[#This Row],[Inicio]],Tabla2[[#This Row],[Vigencia (meses)]])</f>
         <v>43647</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>47</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3407,34 +3516,37 @@
       <c r="C4" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4">
+        <v>100039</v>
+      </c>
+      <c r="F4" s="5">
         <v>1</v>
       </c>
-      <c r="E4" s="4">
+      <c r="G4" s="4">
         <v>17000</v>
       </c>
-      <c r="F4" s="4">
+      <c r="H4" s="4">
         <f>+Tabla2[Cantidad]*Tabla2[Monto unitario]</f>
         <v>17000</v>
       </c>
-      <c r="G4" s="11">
+      <c r="I4" s="11">
         <v>42979</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>22</v>
       </c>
-      <c r="I4" s="11">
+      <c r="K4" s="11">
         <f>+EDATE(Tabla2[[#This Row],[Inicio]],Tabla2[[#This Row],[Vigencia (meses)]])</f>
         <v>43647</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>47</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3444,34 +3556,37 @@
       <c r="C5" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5">
+        <v>500089</v>
+      </c>
+      <c r="F5" s="5">
         <v>1</v>
       </c>
-      <c r="E5" s="4">
+      <c r="G5" s="4">
         <v>17000</v>
       </c>
-      <c r="F5" s="4">
+      <c r="H5" s="4">
         <f>+Tabla2[Cantidad]*Tabla2[Monto unitario]</f>
         <v>17000</v>
       </c>
-      <c r="G5" s="11">
+      <c r="I5" s="11">
         <v>42979</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>22</v>
       </c>
-      <c r="I5" s="11">
+      <c r="K5" s="11">
         <f>+EDATE(Tabla2[[#This Row],[Inicio]],Tabla2[[#This Row],[Vigencia (meses)]])</f>
         <v>43647</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>47</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3481,34 +3596,37 @@
       <c r="C6" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6">
+        <v>500057</v>
+      </c>
+      <c r="F6" s="5">
         <v>1</v>
       </c>
-      <c r="E6" s="4">
+      <c r="G6" s="4">
         <v>27000</v>
       </c>
-      <c r="F6" s="4">
+      <c r="H6" s="4">
         <f>+Tabla2[Cantidad]*Tabla2[Monto unitario]</f>
         <v>27000</v>
       </c>
-      <c r="G6" s="11">
+      <c r="I6" s="11">
         <v>42979</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>22</v>
       </c>
-      <c r="I6" s="11">
+      <c r="K6" s="11">
         <f>+EDATE(Tabla2[[#This Row],[Inicio]],Tabla2[[#This Row],[Vigencia (meses)]])</f>
         <v>43647</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>47</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -3518,34 +3636,37 @@
       <c r="C7" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7">
+        <v>800185</v>
+      </c>
+      <c r="F7" s="5">
         <v>1</v>
       </c>
-      <c r="E7" s="4">
+      <c r="G7" s="4">
         <v>25000</v>
       </c>
-      <c r="F7" s="4">
+      <c r="H7" s="4">
         <f>+Tabla2[Cantidad]*Tabla2[Monto unitario]</f>
         <v>25000</v>
       </c>
-      <c r="G7" s="11">
+      <c r="I7" s="11">
         <v>43040</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>22</v>
       </c>
-      <c r="I7" s="11">
+      <c r="K7" s="11">
         <f>+EDATE(Tabla2[[#This Row],[Inicio]],Tabla2[[#This Row],[Vigencia (meses)]])</f>
         <v>43709</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>47</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -3555,34 +3676,37 @@
       <c r="C8" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8">
+        <v>500170</v>
+      </c>
+      <c r="F8" s="5">
         <v>1</v>
       </c>
-      <c r="E8" s="4">
+      <c r="G8" s="4">
         <v>17500</v>
       </c>
-      <c r="F8" s="4">
+      <c r="H8" s="4">
         <f>+Tabla2[Cantidad]*Tabla2[Monto unitario]</f>
         <v>17500</v>
       </c>
-      <c r="G8" s="11">
+      <c r="I8" s="11">
         <v>43101</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>24</v>
       </c>
-      <c r="I8" s="11">
+      <c r="K8" s="11">
         <f>+EDATE(Tabla2[[#This Row],[Inicio]],Tabla2[[#This Row],[Vigencia (meses)]])</f>
         <v>43831</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>47</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -3592,31 +3716,34 @@
       <c r="C9" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9">
+        <v>800196</v>
+      </c>
+      <c r="F9" s="5">
         <v>1</v>
       </c>
-      <c r="E9" s="4">
+      <c r="G9" s="4">
         <v>27000</v>
       </c>
-      <c r="F9" s="4">
+      <c r="H9" s="4">
         <f>+Tabla2[Cantidad]*Tabla2[Monto unitario]</f>
         <v>27000</v>
       </c>
-      <c r="G9" s="11">
+      <c r="I9" s="11">
         <v>43344</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>36</v>
       </c>
-      <c r="I9" s="11">
+      <c r="K9" s="11">
         <f>+EDATE(Tabla2[[#This Row],[Inicio]],Tabla2[[#This Row],[Vigencia (meses)]])</f>
         <v>44440</v>
       </c>
-      <c r="K9" t="s">
+      <c r="M9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
@@ -3626,31 +3753,37 @@
       <c r="C10" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="5">
         <v>2</v>
       </c>
-      <c r="E10" s="4">
+      <c r="G10" s="4">
         <v>12500</v>
       </c>
-      <c r="F10" s="4">
+      <c r="H10" s="4">
         <f>+Tabla2[Cantidad]*Tabla2[Monto unitario]</f>
         <v>25000</v>
       </c>
-      <c r="G10" s="11">
+      <c r="I10" s="11">
         <v>43344</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>36</v>
       </c>
-      <c r="I10" s="11">
+      <c r="K10" s="11">
         <f>+EDATE(Tabla2[[#This Row],[Inicio]],Tabla2[[#This Row],[Vigencia (meses)]])</f>
         <v>44440</v>
       </c>
-      <c r="K10" t="s">
+      <c r="M10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -3660,31 +3793,31 @@
       <c r="C11" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="5">
+      <c r="F11" s="5">
         <v>1</v>
       </c>
-      <c r="E11" s="4">
+      <c r="G11" s="4">
         <v>73000</v>
       </c>
-      <c r="F11" s="4">
+      <c r="H11" s="4">
         <f>+Tabla2[Cantidad]*Tabla2[Monto unitario]</f>
         <v>73000</v>
       </c>
-      <c r="G11" s="11">
+      <c r="I11" s="11">
         <v>43344</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>36</v>
       </c>
-      <c r="I11" s="11">
+      <c r="K11" s="11">
         <f>+EDATE(Tabla2[[#This Row],[Inicio]],Tabla2[[#This Row],[Vigencia (meses)]])</f>
         <v>44440</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
@@ -3694,74 +3827,101 @@
       <c r="C12" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12">
+        <v>500169</v>
+      </c>
+      <c r="F12" s="5">
         <v>1</v>
       </c>
-      <c r="E12" s="4">
+      <c r="G12" s="4">
         <v>25500</v>
       </c>
-      <c r="F12" s="4">
+      <c r="H12" s="4">
         <f>+Tabla2[Cantidad]*Tabla2[Monto unitario]</f>
         <v>25500</v>
       </c>
-      <c r="G12" s="11">
+      <c r="I12" s="11">
         <v>43497</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>48</v>
       </c>
-      <c r="I12" s="11">
+      <c r="K12" s="11">
         <f>+EDATE(Tabla2[[#This Row],[Inicio]],Tabla2[[#This Row],[Vigencia (meses)]])</f>
         <v>44958</v>
       </c>
-      <c r="K12" t="s">
+      <c r="M12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E14" s="3"/>
-      <c r="F14" s="3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4">
+        <f>+Tabla2[Cantidad]*Tabla2[Monto unitario]</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="11">
+        <f>+EDATE(Tabla2[[#This Row],[Inicio]],Tabla2[[#This Row],[Vigencia (meses)]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3">
         <f>+SUM(Tabla2[Pago total])</f>
         <v>271000</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E15" s="3" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G15" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F15" s="17">
-        <f>+F11</f>
+      <c r="H15" s="17">
+        <f>+H11</f>
         <v>73000</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E16" s="16" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G16" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="17">
-        <f>+F7</f>
+      <c r="H16" s="17">
+        <f>+H7</f>
         <v>25000</v>
       </c>
     </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F17" s="17">
-        <f>+F14-SUM(F15:F16)</f>
+    <row r="17" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H17" s="17">
+        <f>+H14-SUM(H15:H16)</f>
         <v>173000</v>
       </c>
     </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="3"/>
-      <c r="H18" s="17"/>
-    </row>
-    <row r="19" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="3">
+    <row r="18" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H18" s="3"/>
+      <c r="J18" s="17"/>
+    </row>
+    <row r="19" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H19" s="3">
         <f>1300000-125000</f>
         <v>1175000</v>
       </c>
     </row>
-    <row r="20" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="17">
-        <f>+F19-F12-SUM(F3:F8)</f>
+    <row r="20" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H20" s="17">
+        <f>+H19-H12-SUM(H3:H8)</f>
         <v>1029000</v>
       </c>
     </row>
@@ -3771,4 +3931,162 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD889A72-B912-4146-B831-C1D5577A902C}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="22">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="24">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="22">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="24">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="22">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="24">
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="22">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="24">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="24">
+        <v>25500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>